--- a/Traceability_Matrix.xlsx
+++ b/Traceability_Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTERS\DSA\Assignment_DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTERS\DSA\cryptoGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC8FEE-7818-49E0-97DB-4550EEFEC107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBCDC50-0CD8-4ED9-8680-ECFEEA808E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8902" yWindow="4403" windowWidth="24496" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>Reviewer/Approver</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Find and display asset</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Find and display trade details</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>Implementation (and where to see more info in class descriptions)</t>
   </si>
   <si>
-    <t>Difficult to test with unittesting, as we need to mess with commandline arguments</t>
-  </si>
-  <si>
     <t>main() function calls displayUsage()</t>
   </si>
   <si>
@@ -121,12 +115,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Currently not much information. TODO: Add more from Assets.csv</t>
-  </si>
-  <si>
     <t>Basic Display</t>
   </si>
   <si>
@@ -158,30 +146,6 @@
   </si>
   <si>
     <t>Summaries and Stats</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">e.g. 'ETHBTC' - this will be the trade price from ETH-BTC, a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">directional graph </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>with the trade price as the weight.</t>
-    </r>
   </si>
   <si>
     <t>CryptoGraph.getAllPaths()
@@ -199,29 +163,71 @@
     <t>Serialisation</t>
   </si>
   <si>
-    <t>Further options: Save CryptoGraph object to file, save PathsBox object to file</t>
-  </si>
-  <si>
     <t>System allows user to save data by serialisation</t>
   </si>
   <si>
-    <t>Yes, I have the top five trades in terms of number of edges. Enough.</t>
-  </si>
-  <si>
-    <t>Yes. Works, careful of recursion limit.</t>
-  </si>
-  <si>
     <t>System allows users to find trades where an indirect trade path may be cheaper than a direct trade path</t>
   </si>
   <si>
-    <t>Problem with recursion… But should be OK…???</t>
+    <t>main() function serves as the test harness</t>
+  </si>
+  <si>
+    <t>BinanceTradingDataTest.setUp(), BinanceTradingDataTest.test_init()</t>
+  </si>
+  <si>
+    <t>CryptoGraphTest.test_loadEdgeAttributesFrom24hr(), CryptoGraphTest.test_loadCostFromLocalJson(),</t>
+  </si>
+  <si>
+    <t>CryptoGraphTest.test_loadEdgeWeightsFromCurrent()</t>
+  </si>
+  <si>
+    <t>CryptoGraph.loadEdgeWeightsFromCurrent()</t>
+  </si>
+  <si>
+    <t>deserialize()</t>
+  </si>
+  <si>
+    <t>TestStaticMethods.test_serialize_deserialize()</t>
+  </si>
+  <si>
+    <t>CryptoGraphTest.test_getAssetTrades()</t>
+  </si>
+  <si>
+    <t>CryptoGraphTest.test_displayTradeDetails(), CryptoGraphTest.test_displayTradeDetailsPriceChangeCalc()</t>
+  </si>
+  <si>
+    <t>CryptoGraphTest.test_getAllPathsSuccess(), CryptoGraphTest.test_getAllPathsFail()</t>
+  </si>
+  <si>
+    <t>CryptoGraphTest.test_getTopFiveSuccess(), CryptoGraphTest.test_getTopFiveFail()</t>
+  </si>
+  <si>
+    <t>Untested, flagged for future implementation</t>
+  </si>
+  <si>
+    <t>Section 8 of the runInteractiveMenu() function. Makes use of the SortableList.sortByAttribute() method</t>
+  </si>
+  <si>
+    <t>Section 9 of the runInteractiveMenu() function. Makes use of the SortableList.sortByAttribute(), and the getFirstXElements() static method</t>
+  </si>
+  <si>
+    <t>Section 10 of the runInteractiveMenu() function. Uses the CryptoGraph.getTopFiveTradePathsByCost() method.</t>
+  </si>
+  <si>
+    <t>Implemented by the serialize() and deserialize() static methods.</t>
+  </si>
+  <si>
+    <t>TestStaticMethods.test_getFirstXElements()</t>
+  </si>
+  <si>
+    <t>YES. Add assets.csv for more</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +312,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -467,7 +480,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,6 +556,9 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="6" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -623,55 +639,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>426589</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>68798</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBD5BDC-18B1-485D-B0FE-515F900A0CA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9456289" y="504824"/>
-          <a:ext cx="5738209" cy="6050615"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -995,24 +962,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B67BF4B-0B06-45C6-8CE8-D727A64CB61B}">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.1328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="58.1328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="28" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="47.86328125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="3"/>
+    <col min="1" max="1" width="17.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1020,9 +986,8 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:5" s="21" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
@@ -1032,9 +997,8 @@
       <c r="C2" s="19"/>
       <c r="D2" s="20"/>
       <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:5" s="21" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -1044,17 +1008,16 @@
       <c r="C3" s="23"/>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -1062,1021 +1025,945 @@
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:5" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="11" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="11" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="E13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="E15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="E17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="E18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="55.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="E21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" ht="55.5" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="E22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="E24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="E25" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="B26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="E26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="E28" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="10"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="10"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="10"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="10"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="10"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="10"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="10"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="10"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="10"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="10"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="10"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="10"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="10"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="10"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="10"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="10"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="10"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="10"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="10"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="10"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="10"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="10"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="10"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="10"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="10"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="10"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="10"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="10"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="10"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="10"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="10"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="10"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="10"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="10"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="10"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="10"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="10"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="10"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="10"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="10"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="10"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="10"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="10"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="10"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="10"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="10"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="10"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="10"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="10"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="10"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="10"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="10"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6 E8:E10 E24:E25">
@@ -2111,16 +1998,16 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Details xmlns="5e4dbda9-7788-4995-813d-c92e416d68f0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2184,25 +2071,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Details xmlns="5e4dbda9-7788-4995-813d-c92e416d68f0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C11C45-3572-4B8F-A740-CCB27FFED834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE171CC-AF41-481C-8D01-63AD65244025}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5e4dbda9-7788-4995-813d-c92e416d68f0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2225,9 +2104,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE171CC-AF41-481C-8D01-63AD65244025}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C11C45-3572-4B8F-A740-CCB27FFED834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5e4dbda9-7788-4995-813d-c92e416d68f0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>